--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Sdc1</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H2">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.670085303259497</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N2">
-        <v>0.670085303259497</v>
+        <v>2.747794</v>
       </c>
       <c r="O2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q2">
-        <v>2.726000786391513</v>
+        <v>0.1317988551413333</v>
       </c>
       <c r="R2">
-        <v>2.726000786391513</v>
+        <v>1.186189696272</v>
       </c>
       <c r="S2">
-        <v>0.0248248344622808</v>
+        <v>0.00102216765095605</v>
       </c>
       <c r="T2">
-        <v>0.0248248344622808</v>
+        <v>0.00102216765095605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H3">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.416639528447</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N3">
-        <v>10.416639528447</v>
+        <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q3">
-        <v>42.37634732171838</v>
+        <v>1.520742763981333</v>
       </c>
       <c r="R3">
-        <v>42.37634732171838</v>
+        <v>13.686684875832</v>
       </c>
       <c r="S3">
-        <v>0.385908108548391</v>
+        <v>0.01179413931251759</v>
       </c>
       <c r="T3">
-        <v>0.385908108548391</v>
+        <v>0.01179413931251759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H4">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I4">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J4">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.4297498389217</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N4">
-        <v>12.4297498389217</v>
+        <v>3.662902</v>
       </c>
       <c r="O4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q4">
-        <v>50.56596178237417</v>
+        <v>0.1756923153973333</v>
       </c>
       <c r="R4">
-        <v>50.56596178237417</v>
+        <v>1.581230838576</v>
       </c>
       <c r="S4">
-        <v>0.4604883597026113</v>
+        <v>0.001362583924785562</v>
       </c>
       <c r="T4">
-        <v>0.4604883597026113</v>
+        <v>0.001362583924785561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6013279983086079</v>
+        <v>0.143896</v>
       </c>
       <c r="H5">
-        <v>0.6013279983086079</v>
+        <v>0.431688</v>
       </c>
       <c r="I5">
-        <v>0.128778697286717</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J5">
-        <v>0.128778697286717</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670085303259497</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N5">
-        <v>0.670085303259497</v>
+        <v>37.345108</v>
       </c>
       <c r="O5">
-        <v>0.02849429230548853</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P5">
-        <v>0.02849429230548853</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q5">
-        <v>0.4029410541050499</v>
+        <v>1.791270553589333</v>
       </c>
       <c r="R5">
-        <v>0.4029410541050499</v>
+        <v>16.121434982304</v>
       </c>
       <c r="S5">
-        <v>0.003669457843207736</v>
+        <v>0.01389222093033903</v>
       </c>
       <c r="T5">
-        <v>0.003669457843207736</v>
+        <v>0.01389222093033902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H6">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J6">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.416639528447</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N6">
-        <v>10.416639528447</v>
+        <v>2.747794</v>
       </c>
       <c r="O6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q6">
-        <v>6.263816996743357</v>
+        <v>3.917689583162445</v>
       </c>
       <c r="R6">
-        <v>6.263816996743357</v>
+        <v>35.259206248462</v>
       </c>
       <c r="S6">
-        <v>0.05704261745720631</v>
+        <v>0.03038369001082684</v>
       </c>
       <c r="T6">
-        <v>0.05704261745720631</v>
+        <v>0.03038369001082683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H7">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J7">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4297498389217</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N7">
-        <v>12.4297498389217</v>
+        <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q7">
-        <v>7.474356590115527</v>
+        <v>45.20371651734411</v>
       </c>
       <c r="R7">
-        <v>7.474356590115527</v>
+        <v>406.833448656097</v>
       </c>
       <c r="S7">
-        <v>0.06806662198630289</v>
+        <v>0.3505779824678179</v>
       </c>
       <c r="T7">
-        <v>0.06806662198630289</v>
+        <v>0.3505779824678179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H8">
+        <v>12.831823</v>
+      </c>
+      <c r="I8">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J8">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.662902</v>
+      </c>
+      <c r="O8">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P8">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q8">
+        <v>5.222412236705111</v>
+      </c>
+      <c r="R8">
+        <v>47.001710130346</v>
+      </c>
+      <c r="S8">
+        <v>0.04050248268539695</v>
+      </c>
+      <c r="T8">
+        <v>0.04050248268539695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H9">
+        <v>12.831823</v>
+      </c>
+      <c r="I9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N9">
+        <v>37.345108</v>
+      </c>
+      <c r="O9">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P9">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q9">
+        <v>53.24509064132045</v>
+      </c>
+      <c r="R9">
+        <v>479.205815771884</v>
+      </c>
+      <c r="S9">
+        <v>0.4129429589310005</v>
+      </c>
+      <c r="T9">
+        <v>0.4129429589310004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.114861</v>
+      </c>
+      <c r="I10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.747794</v>
+      </c>
+      <c r="O10">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P10">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q10">
+        <v>0.6456891518482222</v>
+      </c>
+      <c r="R10">
+        <v>5.811202366633999</v>
+      </c>
+      <c r="S10">
+        <v>0.005007650202156564</v>
+      </c>
+      <c r="T10">
+        <v>0.005007650202156563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.114861</v>
+      </c>
+      <c r="I11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N11">
+        <v>31.705039</v>
+      </c>
+      <c r="O11">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P11">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q11">
+        <v>7.450194498286554</v>
+      </c>
+      <c r="R11">
+        <v>67.05175048457899</v>
+      </c>
+      <c r="S11">
+        <v>0.05778007556524679</v>
+      </c>
+      <c r="T11">
+        <v>0.05778007556524679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.114861</v>
+      </c>
+      <c r="I12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.662902</v>
+      </c>
+      <c r="O12">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P12">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q12">
+        <v>0.8607253985135555</v>
+      </c>
+      <c r="R12">
+        <v>7.746528586622</v>
+      </c>
+      <c r="S12">
+        <v>0.00667536647244287</v>
+      </c>
+      <c r="T12">
+        <v>0.006675366472442869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.114861</v>
+      </c>
+      <c r="I13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N13">
+        <v>37.345108</v>
+      </c>
+      <c r="O13">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P13">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q13">
+        <v>8.775523605554222</v>
+      </c>
+      <c r="R13">
+        <v>78.979712449988</v>
+      </c>
+      <c r="S13">
+        <v>0.06805868184651351</v>
+      </c>
+      <c r="T13">
+        <v>0.06805868184651351</v>
       </c>
     </row>
   </sheetData>
